--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_wind.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_wind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008503401360544217</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01908169350029816</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.008665511265164644</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.01290201944652205</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1668564920273347</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0627340823970038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02551020408163264</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.024263431542461</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.1159311892296172</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.04270613107822414</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06292834890965744</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0121317157712305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.411764705882353</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1647727272727272</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6054421768707454</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.6169844020797205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -599,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01020408163265306</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03816338700059636</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.01039861351819757</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.01925953627524309</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.02832980972515859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07538994800693248</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.05063291139240502</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.357630979498866</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.4784644194756565</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.74074074074074</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.02935676888556477</v>
       </c>
     </row>
     <row r="9">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.04608879492600428</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01433021806853582</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1499133448873486</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1511075949367092</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01564482029598309</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01530612244897959</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.120450606585789</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.08306962025316458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.001268498942917547</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001869158878504673</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01993067590987868</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.01819620253164558</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.003805496828752641</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009345794392523366</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04506065857885614</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.04430379746835441</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02551020408163264</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0268336314847943</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.02599653379549393</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.008414360508601349</v>
       </c>
     </row>
     <row r="14">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.4999999999999997</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8529411764705873</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1238900634249463</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1800623052959496</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03741496598639455</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03552859618717503</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2277877161598078</v>
+        <v>0.03243670886075951</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.03466204506065857</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.07068062827225134</v>
       </c>
     </row>
     <row r="17">
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05664877757901024</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.01869857890800299</v>
       </c>
     </row>
     <row r="18">
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0006230529595015577</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01473136915077989</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0134493670886076</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1190476190476191</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.121317157712305</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1024,28 +1024,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.04735729386892183</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009345794392523366</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008503401360544217</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2629695885509828</v>
+        <v>0.009493670886075951</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.008665511265164644</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.06207928197457021</v>
       </c>
     </row>
     <row r="21">
@@ -1055,28 +1055,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.1196617336152212</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09221183800623078</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05102040816326531</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01819757365684575</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1866428145497903</v>
+        <v>0.01661392405063292</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.05199306759098785</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.03328347045624542</v>
       </c>
     </row>
     <row r="22">
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4755125284738146</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.4588014981273418</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04591836734693878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.04679376083188907</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.06451009723261054</v>
       </c>
     </row>
     <row r="24">
@@ -1154,16 +1154,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003115264797507789</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02512998266897746</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.02294303797468356</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.04524312896405924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06728971962616836</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01013714967203339</v>
+        <v>0.01424050632911393</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008665511265164644</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0007911392405063291</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0008456659619450317</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001246105919003115</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04506065857885614</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0411392405063291</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.04735729386892183</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04299065420560751</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02623732856290998</v>
+        <v>0.0007911392405063291</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.006765327695560251</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03177570093457942</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007751937984496123</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1334,22 +1334,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01818181818181819</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01495327102803738</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05632582322357017</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01132975551580203</v>
+        <v>0.05142405063291135</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1365,22 +1365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.01606765327695561</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02180685358255451</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06759098786828424</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.05933544303797461</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1396,28 +1396,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.244820295983084</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3607476635513981</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02721088435374149</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0005963029218843172</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.02772963604852685</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0001869857890800299</v>
       </c>
     </row>
     <row r="33">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01522198731501058</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06915887850467305</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006802721088435374</v>
+        <v>0.4871794871794873</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2331022530329285</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.2602848101265832</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02564102564102566</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.008040388930441291</v>
       </c>
     </row>
     <row r="35">
@@ -1501,170 +1501,15 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05372616984402078</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.04905063291139237</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
